--- a/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-16/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71264</v>
+        <v>71266</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110294557</v>
+        <v>110295157</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18848</v>
+        <v>18857</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75117834</v>
+        <v>75163013</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -21055,13 +21055,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D405" t="n">
         <v>4</v>
       </c>
       <c r="E405" t="n">
-        <v>286089</v>
+        <v>354577</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -21106,13 +21106,13 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>6285</v>
+        <v>6295</v>
       </c>
       <c r="D406" t="n">
         <v>911</v>
       </c>
       <c r="E406" t="n">
-        <v>19290013</v>
+        <v>19452171</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9336</v>
+        <v>9339</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23720836</v>
+        <v>23760393</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>164676</v>
+        <v>164677</v>
       </c>
       <c r="D468" t="n">
         <v>27310</v>
       </c>
       <c r="E468" t="n">
-        <v>287059661</v>
+        <v>287066961</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73746</v>
+        <v>73747</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>386348384</v>
+        <v>386472202</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74979</v>
+        <v>74982</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>434681221</v>
+        <v>434912217</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416628</v>
+        <v>416632</v>
       </c>
       <c r="D477" t="n">
         <v>70498</v>
       </c>
       <c r="E477" t="n">
-        <v>724755492</v>
+        <v>724771273</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24778,13 +24778,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D478" t="n">
         <v>23</v>
       </c>
       <c r="E478" t="n">
-        <v>665363</v>
+        <v>671308</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291864</v>
+        <v>291874</v>
       </c>
       <c r="D484" t="n">
         <v>42564</v>
       </c>
       <c r="E484" t="n">
-        <v>1767661264</v>
+        <v>1767732203</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230490</v>
+        <v>230512</v>
       </c>
       <c r="D487" t="n">
         <v>33847</v>
       </c>
       <c r="E487" t="n">
-        <v>1815247172</v>
+        <v>1815879720</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12245</v>
+        <v>12246</v>
       </c>
       <c r="D491" t="n">
         <v>1838</v>
       </c>
       <c r="E491" t="n">
-        <v>75461668</v>
+        <v>75473984</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184241</v>
+        <v>184243</v>
       </c>
       <c r="D505" t="n">
         <v>27737</v>
       </c>
       <c r="E505" t="n">
-        <v>332689980</v>
+        <v>332690915</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62169</v>
+        <v>62171</v>
       </c>
       <c r="D509" t="n">
         <v>11277</v>
       </c>
       <c r="E509" t="n">
-        <v>298586676</v>
+        <v>298721711</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="D513" t="n">
         <v>540</v>
       </c>
       <c r="E513" t="n">
-        <v>14285083</v>
+        <v>14294035</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56089</v>
+        <v>56090</v>
       </c>
       <c r="D520" t="n">
         <v>8769</v>
       </c>
       <c r="E520" t="n">
-        <v>253510639</v>
+        <v>253515671</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="D534" t="n">
-        <v>8565</v>
+        <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>219686913</v>
+        <v>219749837</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -27736,13 +27736,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>37777</v>
+        <v>37779</v>
       </c>
       <c r="D536" t="n">
         <v>6687</v>
       </c>
       <c r="E536" t="n">
-        <v>173248686</v>
+        <v>173272231</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>76639</v>
+        <v>76641</v>
       </c>
       <c r="D540" t="n">
         <v>17494</v>
       </c>
       <c r="E540" t="n">
-        <v>114131597</v>
+        <v>114132538</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25069</v>
+        <v>25074</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92411535</v>
+        <v>92430892</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28297,13 +28297,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>7438</v>
+        <v>7440</v>
       </c>
       <c r="D547" t="n">
         <v>1667</v>
       </c>
       <c r="E547" t="n">
-        <v>37681278</v>
+        <v>37684204</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39921</v>
+        <v>39928</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60359605</v>
+        <v>60363412</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18438</v>
+        <v>18453</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72659539</v>
+        <v>72760118</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12397</v>
+        <v>12398</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40042868</v>
+        <v>40047588</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>32186</v>
+        <v>32187</v>
       </c>
       <c r="D603" t="n">
         <v>6078</v>
       </c>
       <c r="E603" t="n">
-        <v>170277785</v>
+        <v>170477785</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -34519,13 +34519,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>39554</v>
+        <v>39555</v>
       </c>
       <c r="D669" t="n">
         <v>7193</v>
       </c>
       <c r="E669" t="n">
-        <v>209539933</v>
+        <v>209549933</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>7434</v>
+        <v>7435</v>
       </c>
       <c r="D855" t="n">
         <v>1362</v>
       </c>
       <c r="E855" t="n">
-        <v>45727097</v>
+        <v>45731389</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -46708,13 +46708,13 @@
         </is>
       </c>
       <c r="C908" t="n">
-        <v>198891</v>
+        <v>198893</v>
       </c>
       <c r="D908" t="n">
-        <v>40344</v>
+        <v>40345</v>
       </c>
       <c r="E908" t="n">
-        <v>322719679</v>
+        <v>322739607</v>
       </c>
       <c r="F908" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79081</v>
+        <v>79082</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391402903</v>
+        <v>391405598</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -47371,13 +47371,13 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>32195</v>
+        <v>32197</v>
       </c>
       <c r="D921" t="n">
         <v>5510</v>
       </c>
       <c r="E921" t="n">
-        <v>70560754</v>
+        <v>70565470</v>
       </c>
       <c r="F921" t="inlineStr">
         <is>
